--- a/系统管理/基础信息设置/职位管理/职位管理测试用例设计.xlsx
+++ b/系统管理/基础信息设置/职位管理/职位管理测试用例设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 2.点击添加</t>
   </si>
   <si>
-    <t>1.页面发送添加请求，请求参数为name=“测试经理”
+    <t>1.页面发送添加请求
 2.数据库position表中新增一条字段，position的name属性为“测试经理”
 3.前端页面提示添加成功，职位表格刷新，新增“测试经理”职位</t>
   </si>
@@ -121,7 +121,7 @@
 2.点击确定</t>
   </si>
   <si>
-    <t>1.页面发送添加请求，请求参数为name=“TestManager”
+    <t>1.页面发送添加请求
 2.数据库position表中新增一条字段，position的name属性为“TestManager”
 3.前端页面提示添加成功，职位表格刷新，新增“TestManager”职位</t>
   </si>
@@ -136,7 +136,7 @@
 2.点击确定</t>
   </si>
   <si>
-    <t>1.页面发送添加请求，请求参数为name=“123”
+    <t>1.页面发送添加请求
 2.数据库position表中新增一条字段，position的name属性为“123”
 3.前端页面提示添加成功，职位表格刷新，新增“123”职位</t>
   </si>
@@ -151,7 +151,7 @@
 2.点击确定</t>
   </si>
   <si>
-    <t>1.页面发送添加请求，请求参数为name=“测试B12345”
+    <t>1.页面发送添加请求
 2.数据库position表中新增一条字段，position的name属性为“测试B12345”
 3.前端页面提示添加成功，职位表格刷新，新增“测试B12345”职位</t>
   </si>
@@ -166,7 +166,7 @@
 2.点击确定</t>
   </si>
   <si>
-    <t>1.页面发送添加请求，请求参数为name=“测”
+    <t>1.页面发送添加请求
 2.数据库position表中新增一条字段，position的name属性为“测”
 3.前端页面提示添加成功，职位表格刷新，新增“测”职位</t>
   </si>
@@ -578,10 +578,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -592,9 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,21 +607,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,15 +667,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,62 +698,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,6 +720,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -745,7 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +757,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,19 +787,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,103 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,13 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,6 +936,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -955,30 +973,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -993,20 +987,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,6 +1019,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1047,7 +1047,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,133 +1056,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1517,13 +1517,14 @@
   <sheetPr/>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1604,7 +1605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="202.5" spans="1:14">
+    <row r="3" ht="40.5" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="324" spans="1:14">
+    <row r="4" ht="54" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="351" spans="1:14">
+    <row r="5" ht="54" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" ht="310.5" spans="1:14">
+    <row r="6" ht="40.5" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" ht="337.5" spans="1:14">
+    <row r="7" ht="54" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" ht="297" spans="1:14">
+    <row r="8" ht="40.5" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" ht="81" spans="1:14">
+    <row r="15" ht="67.5" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" ht="175.5" spans="1:14">
+    <row r="17" ht="94.5" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" ht="283.5" spans="1:14">
+    <row r="18" ht="162" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" ht="283.5" spans="1:14">
+    <row r="19" ht="162" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" ht="256.5" spans="1:14">
+    <row r="20" ht="148.5" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" ht="283.5" spans="1:14">
+    <row r="21" ht="162" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" ht="256.5" spans="1:14">
+    <row r="22" ht="148.5" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" ht="270" spans="1:14">
+    <row r="33" ht="135" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" ht="270" spans="1:14">
+    <row r="34" ht="135" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" ht="162" spans="1:14">
+    <row r="35" ht="81" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" ht="189" spans="1:14">
+    <row r="36" ht="108" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" ht="148.5" spans="1:14">
+    <row r="37" ht="81" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" ht="189" spans="1:14">
+    <row r="38" ht="108" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" ht="54" spans="1:14">
+    <row r="39" ht="27" spans="1:14">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -2956,7 +2957,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" ht="94.5" spans="1:14">
+    <row r="40" ht="54" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" ht="148.5" spans="1:14">
+    <row r="44" ht="94.5" spans="1:14">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" ht="162" spans="1:14">
+    <row r="45" ht="94.5" spans="1:14">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" ht="108" spans="1:14">
+    <row r="46" ht="81" spans="1:14">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
